--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cck-Cckbr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cck-Cckbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Cck</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,72 +522,72 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.4587156666666667</v>
+      </c>
+      <c r="H2">
+        <v>1.376147</v>
+      </c>
+      <c r="I2">
+        <v>0.1951316036962996</v>
+      </c>
+      <c r="J2">
+        <v>0.2163358909909342</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.6552053333333333</v>
-      </c>
-      <c r="H2">
-        <v>1.965616</v>
-      </c>
-      <c r="I2">
-        <v>0.1282135351127643</v>
-      </c>
-      <c r="J2">
-        <v>0.162056057121492</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09168033333333332</v>
+        <v>0.4778266666666666</v>
       </c>
       <c r="N2">
-        <v>0.275041</v>
+        <v>1.43348</v>
       </c>
       <c r="O2">
-        <v>0.1609819253026448</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1609819253026448</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.06006944336177777</v>
+        <v>0.2191865779511111</v>
       </c>
       <c r="R2">
-        <v>0.540624990256</v>
+        <v>1.97267920156</v>
       </c>
       <c r="S2">
-        <v>0.02064006173231106</v>
+        <v>0.1951316036962996</v>
       </c>
       <c r="T2">
-        <v>0.02608809608237317</v>
+        <v>0.2163358909909342</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6552053333333333</v>
+        <v>1.054585</v>
       </c>
       <c r="H3">
-        <v>1.965616</v>
+        <v>3.163755</v>
       </c>
       <c r="I3">
-        <v>0.1282135351127643</v>
+        <v>0.4486065709929146</v>
       </c>
       <c r="J3">
-        <v>0.162056057121492</v>
+        <v>0.4973551203483517</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,116 +623,116 @@
         <v>1.43348</v>
       </c>
       <c r="O3">
-        <v>0.8390180746973551</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.8390180746973552</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.3130745804088889</v>
+        <v>0.5039088352666666</v>
       </c>
       <c r="R3">
-        <v>2.81767122368</v>
+        <v>4.5351795174</v>
       </c>
       <c r="S3">
-        <v>0.1075734733804533</v>
+        <v>0.4486065709929146</v>
       </c>
       <c r="T3">
-        <v>0.1359679610391188</v>
+        <v>0.4973551203483517</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.1462553333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.438766</v>
+      </c>
+      <c r="I4">
+        <v>0.06221509273893747</v>
+      </c>
+      <c r="J4">
+        <v>0.0689757951341886</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.054585</v>
-      </c>
-      <c r="H4">
-        <v>3.163755</v>
-      </c>
-      <c r="I4">
-        <v>0.2063659497992913</v>
-      </c>
-      <c r="J4">
-        <v>0.2608371426557404</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09168033333333332</v>
+        <v>0.4778266666666666</v>
       </c>
       <c r="N4">
-        <v>0.275041</v>
+        <v>1.43348</v>
       </c>
       <c r="O4">
-        <v>0.1609819253026448</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.1609819253026448</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.09668470432833332</v>
+        <v>0.06988469840888888</v>
       </c>
       <c r="R4">
-        <v>0.8701623389549998</v>
+        <v>0.6289622856799999</v>
       </c>
       <c r="S4">
-        <v>0.03322118791559885</v>
+        <v>0.06221509273893747</v>
       </c>
       <c r="T4">
-        <v>0.04199006541516172</v>
+        <v>0.0689757951341886</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.054585</v>
+        <v>0.6912455</v>
       </c>
       <c r="H5">
-        <v>3.163755</v>
+        <v>1.382491</v>
       </c>
       <c r="I5">
-        <v>0.2063659497992913</v>
+        <v>0.2940467325718483</v>
       </c>
       <c r="J5">
-        <v>0.2608371426557404</v>
+        <v>0.2173331935265256</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -750,394 +747,22 @@
         <v>1.43348</v>
       </c>
       <c r="O5">
-        <v>0.8390180746973551</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.8390180746973552</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.5039088352666665</v>
+        <v>0.3302955331133333</v>
       </c>
       <c r="R5">
-        <v>4.535179517399999</v>
+        <v>1.98177319868</v>
       </c>
       <c r="S5">
-        <v>0.1731447618836924</v>
+        <v>0.2940467325718483</v>
       </c>
       <c r="T5">
-        <v>0.2188470772405787</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.09810399999999998</v>
-      </c>
-      <c r="H6">
-        <v>0.294312</v>
-      </c>
-      <c r="I6">
-        <v>0.01919743324540902</v>
-      </c>
-      <c r="J6">
-        <v>0.02426467951193954</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.09168033333333332</v>
-      </c>
-      <c r="N6">
-        <v>0.275041</v>
-      </c>
-      <c r="O6">
-        <v>0.1609819253026448</v>
-      </c>
-      <c r="P6">
-        <v>0.1609819253026448</v>
-      </c>
-      <c r="Q6">
-        <v>0.00899420742133333</v>
-      </c>
-      <c r="R6">
-        <v>0.08094786679199999</v>
-      </c>
-      <c r="S6">
-        <v>0.003090439764714945</v>
-      </c>
-      <c r="T6">
-        <v>0.003906174824683667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.09810399999999998</v>
-      </c>
-      <c r="H7">
-        <v>0.294312</v>
-      </c>
-      <c r="I7">
-        <v>0.01919743324540902</v>
-      </c>
-      <c r="J7">
-        <v>0.02426467951193954</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.4778266666666666</v>
-      </c>
-      <c r="N7">
-        <v>1.43348</v>
-      </c>
-      <c r="O7">
-        <v>0.8390180746973551</v>
-      </c>
-      <c r="P7">
-        <v>0.8390180746973552</v>
-      </c>
-      <c r="Q7">
-        <v>0.04687670730666665</v>
-      </c>
-      <c r="R7">
-        <v>0.4218903657599999</v>
-      </c>
-      <c r="S7">
-        <v>0.01610699348069407</v>
-      </c>
-      <c r="T7">
-        <v>0.02035850468725587</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.2015645</v>
-      </c>
-      <c r="H8">
-        <v>6.403129</v>
-      </c>
-      <c r="I8">
-        <v>0.6264965829081517</v>
-      </c>
-      <c r="J8">
-        <v>0.5279087263129125</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.09168033333333332</v>
-      </c>
-      <c r="N8">
-        <v>0.275041</v>
-      </c>
-      <c r="O8">
-        <v>0.1609819253026448</v>
-      </c>
-      <c r="P8">
-        <v>0.1609819253026448</v>
-      </c>
-      <c r="Q8">
-        <v>0.2935205005481666</v>
-      </c>
-      <c r="R8">
-        <v>1.761123003289</v>
-      </c>
-      <c r="S8">
-        <v>0.1008546261120823</v>
-      </c>
-      <c r="T8">
-        <v>0.08498376314591966</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.2015645</v>
-      </c>
-      <c r="H9">
-        <v>6.403129</v>
-      </c>
-      <c r="I9">
-        <v>0.6264965829081517</v>
-      </c>
-      <c r="J9">
-        <v>0.5279087263129125</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.4778266666666666</v>
-      </c>
-      <c r="N9">
-        <v>1.43348</v>
-      </c>
-      <c r="O9">
-        <v>0.8390180746973551</v>
-      </c>
-      <c r="P9">
-        <v>0.8390180746973552</v>
-      </c>
-      <c r="Q9">
-        <v>1.529792893153333</v>
-      </c>
-      <c r="R9">
-        <v>9.178757358919999</v>
-      </c>
-      <c r="S9">
-        <v>0.5256419567960694</v>
-      </c>
-      <c r="T9">
-        <v>0.4429249631669929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1008076666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.302423</v>
-      </c>
-      <c r="I10">
-        <v>0.01972649893438369</v>
-      </c>
-      <c r="J10">
-        <v>0.02493339439791545</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.09168033333333332</v>
-      </c>
-      <c r="N10">
-        <v>0.275041</v>
-      </c>
-      <c r="O10">
-        <v>0.1609819253026448</v>
-      </c>
-      <c r="P10">
-        <v>0.1609819253026448</v>
-      </c>
-      <c r="Q10">
-        <v>0.009242080482555554</v>
-      </c>
-      <c r="R10">
-        <v>0.083178724343</v>
-      </c>
-      <c r="S10">
-        <v>0.003175609777937657</v>
-      </c>
-      <c r="T10">
-        <v>0.004013825834506608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.1008076666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.302423</v>
-      </c>
-      <c r="I11">
-        <v>0.01972649893438369</v>
-      </c>
-      <c r="J11">
-        <v>0.02493339439791545</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.4778266666666666</v>
-      </c>
-      <c r="N11">
-        <v>1.43348</v>
-      </c>
-      <c r="O11">
-        <v>0.8390180746973551</v>
-      </c>
-      <c r="P11">
-        <v>0.8390180746973552</v>
-      </c>
-      <c r="Q11">
-        <v>0.04816859133777777</v>
-      </c>
-      <c r="R11">
-        <v>0.4335173220399999</v>
-      </c>
-      <c r="S11">
-        <v>0.01655088915644603</v>
-      </c>
-      <c r="T11">
-        <v>0.02091956856340884</v>
+        <v>0.2173331935265256</v>
       </c>
     </row>
   </sheetData>
